--- a/doc/log/201708044203崔梦婷.xlsx
+++ b/doc/log/201708044203崔梦婷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>日期</t>
   </si>
@@ -33,12 +33,19 @@
     <t>2019.7.15</t>
   </si>
   <si>
-    <t>14：10-17：30
-19.10-21.30</t>
+    <t>14：10-17：30</t>
   </si>
   <si>
-    <t>1.完成python环境配置
-2.学习python基础语法</t>
+    <t>1.完成python环境配置</t>
+  </si>
+  <si>
+    <t>完成配置</t>
+  </si>
+  <si>
+    <t>19.10-21.30</t>
+  </si>
+  <si>
+    <t>2.学习python基础语法</t>
   </si>
 </sst>
 </file>
@@ -46,10 +53,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -75,6 +82,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,28 +98,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -114,7 +106,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,14 +136,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,7 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,32 +165,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,6 +179,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -205,10 +196,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -227,19 +234,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,151 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,45 +449,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -508,6 +476,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -527,6 +519,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,130 +554,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,7 +1048,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1049,10 +1056,10 @@
     <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:4">
+    <row r="1" ht="24" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="42" customHeight="1" spans="1:4">
+    <row r="2" ht="24" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1076,201 +1083,207 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" ht="42" customHeight="1" spans="1:4">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="24" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:4">
+    <row r="4" ht="24" customHeight="1" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" ht="42" customHeight="1" spans="1:4">
+    <row r="5" ht="24" customHeight="1" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:4">
+    <row r="6" ht="24" customHeight="1" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" ht="42" customHeight="1" spans="1:4">
+    <row r="7" ht="24" customHeight="1" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" ht="42" customHeight="1" spans="1:4">
+    <row r="8" ht="24" customHeight="1" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" ht="42" customHeight="1" spans="1:4">
+    <row r="9" ht="24" customHeight="1" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:4">
+    <row r="10" ht="24" customHeight="1" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:4">
+    <row r="11" ht="24" customHeight="1" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" ht="42" customHeight="1" spans="1:4">
+    <row r="12" ht="24" customHeight="1" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:4">
+    <row r="13" ht="24" customHeight="1" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" ht="42" customHeight="1" spans="1:4">
+    <row r="14" ht="24" customHeight="1" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" ht="42" customHeight="1" spans="1:4">
+    <row r="15" ht="24" customHeight="1" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" ht="42" customHeight="1" spans="1:4">
+    <row r="16" ht="24" customHeight="1" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" ht="42" customHeight="1" spans="1:4">
+    <row r="17" ht="24" customHeight="1" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" ht="42" customHeight="1" spans="1:4">
+    <row r="18" ht="24" customHeight="1" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="42" customHeight="1" spans="1:4">
+    <row r="19" ht="24" customHeight="1" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" ht="42" customHeight="1" spans="1:4">
+    <row r="20" ht="24" customHeight="1" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" ht="42" customHeight="1" spans="1:4">
+    <row r="21" ht="24" customHeight="1" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" ht="42" customHeight="1" spans="1:4">
+    <row r="22" ht="24" customHeight="1" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="42" customHeight="1" spans="1:4">
+    <row r="23" ht="24" customHeight="1" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="42" customHeight="1" spans="1:4">
+    <row r="24" ht="24" customHeight="1" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="42" customHeight="1" spans="1:4">
+    <row r="25" ht="24" customHeight="1" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="42" customHeight="1" spans="1:4">
+    <row r="26" ht="24" customHeight="1" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="42" customHeight="1" spans="1:4">
+    <row r="27" ht="24" customHeight="1" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
+    <row r="28" ht="24" customHeight="1" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="42" customHeight="1" spans="1:4">
+    <row r="29" ht="24" customHeight="1" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="42" customHeight="1" spans="1:4">
+    <row r="30" ht="24" customHeight="1" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="42" customHeight="1" spans="1:4">
+    <row r="31" ht="24" customHeight="1" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="42" customHeight="1" spans="1:4">
+    <row r="32" ht="24" customHeight="1" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="42" customHeight="1" spans="1:4">
+    <row r="33" ht="24" customHeight="1" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="42" customHeight="1" spans="1:4">
+    <row r="34" ht="24" customHeight="1" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="42" customHeight="1" spans="1:4">
+    <row r="35" ht="24" customHeight="1" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>

--- a/doc/log/201708044203崔梦婷.xlsx
+++ b/doc/log/201708044203崔梦婷.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13065"/>
+    <workbookView windowWidth="28110" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>日期</t>
   </si>
@@ -46,6 +46,10 @@
   </si>
   <si>
     <t>2.学习python基础语法</t>
+  </si>
+  <si>
+    <t>欠缺Python文件、方法、
+异常处理、文件/目录方法、内置函数</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1052,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1056,7 +1060,7 @@
     <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:4">
@@ -1087,7 +1091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="24" customHeight="1" spans="1:4">
+    <row r="3" ht="46" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -1095,7 +1099,9 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:4">
       <c r="A4" s="2"/>

--- a/doc/log/201708044203崔梦婷.xlsx
+++ b/doc/log/201708044203崔梦婷.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>日期</t>
   </si>
@@ -87,7 +87,34 @@
     <t>19：00-21：30</t>
   </si>
   <si>
-    <t>完成面向对象系统的编程</t>
+    <t>学习电子文档</t>
+  </si>
+  <si>
+    <t>看电子文档</t>
+  </si>
+  <si>
+    <t>2019.7.17</t>
+  </si>
+  <si>
+    <t>利用vue完成前端的搭建</t>
+  </si>
+  <si>
+    <t>完成整体的构建</t>
+  </si>
+  <si>
+    <t>14：05-17：40</t>
+  </si>
+  <si>
+    <t>将后台内容显示在前端table上</t>
+  </si>
+  <si>
+    <t>完成路由的配置，但是显示中出现格式错误</t>
+  </si>
+  <si>
+    <t>修改错误、看电子文档</t>
+  </si>
+  <si>
+    <t>修改错误-未完成</t>
   </si>
 </sst>
 </file>
@@ -118,14 +145,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,20 +166,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +174,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -168,98 +287,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -276,13 +303,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,169 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +521,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -505,56 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,8 +565,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,16 +629,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,115 +647,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,7 +1129,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1207,31 +1234,53 @@
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:6">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:6">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>

--- a/doc/log/201708044203崔梦婷.xlsx
+++ b/doc/log/201708044203崔梦婷.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13065"/>
+    <workbookView windowWidth="23730" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>日期</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>修改错误-未完成</t>
+  </si>
+  <si>
+    <t>2019.7.18</t>
+  </si>
+  <si>
+    <t>更换git版本、安装Anaconda、修改前端错误</t>
+  </si>
+  <si>
+    <t>完善前端页面</t>
+  </si>
+  <si>
+    <t>19：30-21：30</t>
+  </si>
+  <si>
+    <t>配置Anaconda、安装GitoriseGit</t>
   </si>
 </sst>
 </file>
@@ -122,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -145,14 +160,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,59 +266,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -235,27 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -266,23 +290,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,187 +318,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +527,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -523,11 +553,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,39 +590,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -595,17 +605,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,133 +644,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,7 +1144,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1285,26 +1300,46 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:6">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:6">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
